--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1029132.499385463</v>
+        <v>1028419.894911422</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.3342839196086</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566236</v>
+        <v>81.67595429314015</v>
       </c>
       <c r="D11" t="n">
-        <v>159.442510317672</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384197</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.53078872718772</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.17968824550871</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>71.82086528673102</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.5501342845968</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>181.4530649701509</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810671</v>
+        <v>9.188502199810699</v>
       </c>
       <c r="D12" t="n">
-        <v>103.2332849607567</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851665</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134804</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437492</v>
+        <v>110.727508789234</v>
       </c>
       <c r="V12" t="n">
-        <v>188.5623770505815</v>
+        <v>62.31927159084702</v>
       </c>
       <c r="W12" t="n">
-        <v>88.37493425245634</v>
+        <v>88.37493425245637</v>
       </c>
       <c r="X12" t="n">
-        <v>188.5623770505815</v>
+        <v>38.98326511491538</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947037</v>
+        <v>45.0546368094704</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650161</v>
+        <v>25.09353465650164</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412742</v>
+        <v>57.10576830412744</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605257</v>
+        <v>45.4312651160526</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226097</v>
+        <v>110.3268994226098</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989465</v>
+        <v>66.77936585989468</v>
       </c>
       <c r="W13" t="n">
         <v>111.9810577647801</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368728</v>
+        <v>43.58980608368731</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961317</v>
+        <v>38.8116234896132</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>182.1357150295401</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.6883080494462</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384197</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718769</v>
+        <v>16.53078872718778</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550869</v>
+        <v>49.17968824550877</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065502</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.82086528673108</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.5501342845969</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>94.44071121384474</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810671</v>
+        <v>9.188502199810756</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851665</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T15" t="n">
-        <v>131.4083016914052</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437492</v>
+        <v>58.89840834437501</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084699</v>
+        <v>62.31927159084708</v>
       </c>
       <c r="W15" t="n">
-        <v>88.37493425245634</v>
+        <v>140.2040346973151</v>
       </c>
       <c r="X15" t="n">
-        <v>188.5623770505815</v>
+        <v>38.98326511491544</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947037</v>
+        <v>45.05463680947045</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650161</v>
+        <v>25.0935346565017</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412742</v>
+        <v>57.1057683041275</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605257</v>
+        <v>45.43126511605266</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226097</v>
+        <v>110.3268994226098</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989465</v>
+        <v>66.77936585989474</v>
       </c>
       <c r="W16" t="n">
-        <v>111.9810577647801</v>
+        <v>111.9810577647802</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368728</v>
+        <v>43.58980608368736</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961317</v>
+        <v>38.81162348961325</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>52.78090558911759</v>
       </c>
       <c r="D17" t="n">
-        <v>40.34756785016606</v>
+        <v>40.34756785016675</v>
       </c>
       <c r="E17" t="n">
         <v>74.05432026957493</v>
@@ -1859,7 +1859,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H17" t="n">
-        <v>49.59336558194014</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.45519181709108</v>
+        <v>23.45519181709079</v>
       </c>
       <c r="W17" t="n">
         <v>40.47187203370567</v>
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>7.957652155789344</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1965,28 +1965,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S18" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="W18" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>24.53059687504965</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>167.1299672323679</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V21" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>41.26540208583156</v>
       </c>
       <c r="X21" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
     </row>
     <row r="22">
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="W24" t="n">
-        <v>182.8205469169339</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.5623770505815</v>
+        <v>31.37710335571811</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2555,7 +2555,7 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D26" t="n">
         <v>124.3051829741945</v>
@@ -2567,7 +2567,7 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H26" t="n">
         <v>133.5509807059686</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203116</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177534</v>
+        <v>8.997433817177505</v>
       </c>
       <c r="U26" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W26" t="n">
         <v>124.4294871577341</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>98.64492475618519</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870549</v>
+        <v>1.50322227787052</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280576689302</v>
+        <v>23.7610810008974</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.18194424736947</v>
       </c>
       <c r="W27" t="n">
-        <v>53.23760690897885</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>48.15721001177992</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036443</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>54.7391626272621</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>1.50322227787052</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2280576689302</v>
+        <v>23.7610810008974</v>
       </c>
       <c r="V30" t="n">
-        <v>27.18194424736947</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.23760690897882</v>
       </c>
       <c r="X30" t="n">
-        <v>3.845937771437832</v>
+        <v>72.62088673792431</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992844</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -3029,7 +3029,7 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C32" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D32" t="n">
         <v>124.3051829741945</v>
@@ -3041,7 +3041,7 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G32" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H32" t="n">
         <v>133.5509807059686</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203116</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177523</v>
+        <v>8.997433817177495</v>
       </c>
       <c r="U32" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V32" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W32" t="n">
         <v>124.4294871577341</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870549</v>
+        <v>1.503222277870521</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2280576689302</v>
+        <v>227.2446683178181</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>97.5488791493209</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.84593777143786</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14582053632154</v>
+        <v>78.14582053632148</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71248279737</v>
+        <v>65.71248279736994</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41923521677887</v>
+        <v>99.41923521677882</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1395727951562</v>
+        <v>131.1395727951561</v>
       </c>
       <c r="G35" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H35" t="n">
-        <v>74.95828052914408</v>
+        <v>74.95828052914402</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82010676429474</v>
+        <v>48.82010676429468</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83678698090961</v>
+        <v>65.83678698090955</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72303744984885</v>
+        <v>87.72303744984879</v>
       </c>
       <c r="Y35" t="n">
         <v>110.2258905735926</v>
@@ -3345,19 +3345,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>21.08020161175782</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U36" t="n">
-        <v>29.4714098040941</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.5968719023077</v>
+        <v>16.59687190230765</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25103024447805</v>
+        <v>18.25103024447799</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632154</v>
+        <v>78.14582053632148</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279737</v>
+        <v>65.71248279736994</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677887</v>
+        <v>99.41923521677882</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951562</v>
+        <v>131.1395727951561</v>
       </c>
       <c r="G38" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914408</v>
+        <v>74.95828052914402</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429474</v>
+        <v>48.82010676429468</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090961</v>
+        <v>65.83678698090955</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984885</v>
+        <v>87.72303744984879</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2258905735926</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>30.36148475540228</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.846506480668513</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>181.8383840413173</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.5968719023077</v>
+        <v>16.59687190230765</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447805</v>
+        <v>18.25103024447799</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.153699692889006</v>
+        <v>9.153699692889013</v>
       </c>
       <c r="V41" t="n">
         <v>79.88296869075478</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3861,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.846506480668513</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>100.9559930020166</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>173.6417878925369</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>162.2024347216162</v>
       </c>
       <c r="G44" t="n">
-        <v>177.8410220272072</v>
+        <v>177.8410220272076</v>
       </c>
       <c r="H44" t="n">
         <v>106.0211424556041</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>42.8107521780204</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4098,28 +4098,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.84650648066852</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>125.588134761487</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>25.70776865861436</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>413.0501658894378</v>
+        <v>97.58595409651133</v>
       </c>
       <c r="C11" t="n">
-        <v>239.4381981554747</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D11" t="n">
-        <v>78.38515743055342</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E11" t="n">
-        <v>78.38515743055342</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F11" t="n">
-        <v>78.38515743055342</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G11" t="n">
-        <v>78.38515743055342</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H11" t="n">
-        <v>78.38515743055342</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I11" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K11" t="n">
-        <v>185.0137379722658</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L11" t="n">
-        <v>231.7870762025598</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="M11" t="n">
-        <v>418.4638294826355</v>
+        <v>388.438496724198</v>
       </c>
       <c r="N11" t="n">
-        <v>493.8510794158736</v>
+        <v>463.8257466574362</v>
       </c>
       <c r="O11" t="n">
-        <v>666.4818518381372</v>
+        <v>504.8287151602035</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381372</v>
+        <v>666.4818518381375</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R11" t="n">
-        <v>754.2495082023262</v>
+        <v>737.5517418112277</v>
       </c>
       <c r="S11" t="n">
-        <v>754.2495082023262</v>
+        <v>687.8752890379865</v>
       </c>
       <c r="T11" t="n">
-        <v>754.2495082023262</v>
+        <v>687.8752890379865</v>
       </c>
       <c r="U11" t="n">
-        <v>754.2495082023262</v>
+        <v>615.3289604655308</v>
       </c>
       <c r="V11" t="n">
-        <v>754.2495082023262</v>
+        <v>471.3389258346249</v>
       </c>
       <c r="W11" t="n">
-        <v>754.2495082023262</v>
+        <v>471.3389258346249</v>
       </c>
       <c r="X11" t="n">
-        <v>570.9635839900526</v>
+        <v>288.0530016223513</v>
       </c>
       <c r="Y11" t="n">
-        <v>570.9635839900526</v>
+        <v>97.58595409651133</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128.6423509322964</v>
+        <v>24.36630551739067</v>
       </c>
       <c r="C12" t="n">
-        <v>119.3610355789523</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J12" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
         <v>53.07705719635121</v>
@@ -5127,43 +5127,43 @@
         <v>170.4486221681695</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q12" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R12" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S12" t="n">
-        <v>740.8577884361478</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="T12" t="n">
-        <v>703.8471322529679</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="U12" t="n">
-        <v>644.353790490973</v>
+        <v>261.4694446766727</v>
       </c>
       <c r="V12" t="n">
-        <v>453.8867429651331</v>
+        <v>198.5206854939989</v>
       </c>
       <c r="W12" t="n">
-        <v>364.6191326091165</v>
+        <v>109.2530751379824</v>
       </c>
       <c r="X12" t="n">
-        <v>174.1520850832766</v>
+        <v>69.87603966837086</v>
       </c>
       <c r="Y12" t="n">
-        <v>128.6423509322964</v>
+        <v>24.36630551739067</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.79059153703781</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C13" t="n">
-        <v>15.79059153703781</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D13" t="n">
-        <v>48.6061206201439</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E13" t="n">
-        <v>48.6061206201439</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F13" t="n">
-        <v>48.6061206201439</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G13" t="n">
-        <v>58.13885549199389</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H13" t="n">
-        <v>58.13885549199389</v>
+        <v>27.46651600465423</v>
       </c>
       <c r="I13" t="n">
-        <v>71.48525734090428</v>
+        <v>40.81291785356459</v>
       </c>
       <c r="J13" t="n">
-        <v>71.48525734090428</v>
+        <v>40.81291785356459</v>
       </c>
       <c r="K13" t="n">
-        <v>71.48525734090428</v>
+        <v>104.2320467439803</v>
       </c>
       <c r="L13" t="n">
-        <v>71.48525734090428</v>
+        <v>248.9702861992382</v>
       </c>
       <c r="M13" t="n">
-        <v>210.497952197111</v>
+        <v>400.5753329514387</v>
       </c>
       <c r="N13" t="n">
-        <v>210.497952197111</v>
+        <v>400.5753329514387</v>
       </c>
       <c r="O13" t="n">
-        <v>349.9613012161987</v>
+        <v>400.5753329514387</v>
       </c>
       <c r="P13" t="n">
-        <v>468.6318884260457</v>
+        <v>519.2459201612857</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612854</v>
+        <v>519.2459201612857</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577484</v>
+        <v>493.8989154577487</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111551</v>
+        <v>436.2163212111553</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272636</v>
+        <v>390.3261544272638</v>
       </c>
       <c r="U13" t="n">
-        <v>278.884841879173</v>
+        <v>278.8848418791731</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701885</v>
+        <v>211.4309369701886</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980456</v>
+        <v>98.31875740980462</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456488</v>
+        <v>54.28865025456491</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>643.2947222090419</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="C14" t="n">
-        <v>643.2947222090419</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="D14" t="n">
-        <v>643.2947222090419</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="E14" t="n">
-        <v>452.827674683202</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="F14" t="n">
-        <v>268.8522049563935</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="G14" t="n">
-        <v>78.38515743055356</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="H14" t="n">
-        <v>78.38515743055356</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I14" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567087</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="K14" t="n">
-        <v>285.5745218649279</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="L14" t="n">
-        <v>332.3478600952218</v>
+        <v>162.4191122870025</v>
       </c>
       <c r="M14" t="n">
-        <v>519.0246133752976</v>
+        <v>349.0958655670783</v>
       </c>
       <c r="N14" t="n">
-        <v>594.4118633085357</v>
+        <v>535.772618847154</v>
       </c>
       <c r="O14" t="n">
-        <v>754.2495082023262</v>
+        <v>570.0493024805836</v>
       </c>
       <c r="P14" t="n">
-        <v>754.2495082023262</v>
+        <v>731.7024391585174</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R14" t="n">
         <v>737.5517418112275</v>
       </c>
       <c r="S14" t="n">
-        <v>687.8752890379865</v>
+        <v>687.8752890379864</v>
       </c>
       <c r="T14" t="n">
-        <v>643.2947222090419</v>
+        <v>687.8752890379864</v>
       </c>
       <c r="U14" t="n">
-        <v>643.2947222090419</v>
+        <v>615.3289604655307</v>
       </c>
       <c r="V14" t="n">
-        <v>643.2947222090419</v>
+        <v>471.3389258346248</v>
       </c>
       <c r="W14" t="n">
-        <v>643.2947222090419</v>
+        <v>471.3389258346248</v>
       </c>
       <c r="X14" t="n">
-        <v>643.2947222090419</v>
+        <v>375.9442680428625</v>
       </c>
       <c r="Y14" t="n">
-        <v>643.2947222090419</v>
+        <v>375.9442680428625</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.36630551739064</v>
+        <v>24.36630551739073</v>
       </c>
       <c r="C15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J15" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K15" t="n">
         <v>53.07705719635118</v>
@@ -5367,40 +5367,40 @@
         <v>352.1703666486676</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O15" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P15" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q15" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R15" t="n">
-        <v>618.180176535221</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S15" t="n">
-        <v>604.7884567690426</v>
+        <v>563.7824606764864</v>
       </c>
       <c r="T15" t="n">
-        <v>472.0527984948959</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="U15" t="n">
-        <v>412.559456732901</v>
+        <v>313.8220713886515</v>
       </c>
       <c r="V15" t="n">
-        <v>349.6106975502273</v>
+        <v>250.8733122059776</v>
       </c>
       <c r="W15" t="n">
-        <v>260.3430871942107</v>
+        <v>109.2530751379825</v>
       </c>
       <c r="X15" t="n">
-        <v>69.87603966837081</v>
+        <v>69.87603966837099</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.36630551739064</v>
+        <v>24.36630551739073</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C16" t="n">
-        <v>15.08499016404652</v>
+        <v>26.83873383310351</v>
       </c>
       <c r="D16" t="n">
-        <v>15.08499016404652</v>
+        <v>26.83873383310351</v>
       </c>
       <c r="E16" t="n">
-        <v>51.37196319525348</v>
+        <v>63.12570686431038</v>
       </c>
       <c r="F16" t="n">
-        <v>51.37196319525348</v>
+        <v>63.12570686431038</v>
       </c>
       <c r="G16" t="n">
-        <v>51.37196319525348</v>
+        <v>63.12570686431038</v>
       </c>
       <c r="H16" t="n">
-        <v>51.37196319525348</v>
+        <v>75.50723270491802</v>
       </c>
       <c r="I16" t="n">
-        <v>64.71836504416387</v>
+        <v>75.50723270491802</v>
       </c>
       <c r="J16" t="n">
-        <v>122.2380561107755</v>
+        <v>75.50723270491802</v>
       </c>
       <c r="K16" t="n">
-        <v>232.4420650717732</v>
+        <v>185.7112416659157</v>
       </c>
       <c r="L16" t="n">
-        <v>367.640873409085</v>
+        <v>228.1775243899982</v>
       </c>
       <c r="M16" t="n">
-        <v>519.2459201612854</v>
+        <v>379.7825711421986</v>
       </c>
       <c r="N16" t="n">
-        <v>519.2459201612854</v>
+        <v>379.7825711421986</v>
       </c>
       <c r="O16" t="n">
-        <v>519.2459201612854</v>
+        <v>519.2459201612862</v>
       </c>
       <c r="P16" t="n">
-        <v>519.2459201612854</v>
+        <v>519.2459201612862</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612854</v>
+        <v>519.2459201612862</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577484</v>
+        <v>493.8989154577491</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111551</v>
+        <v>436.2163212111557</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272636</v>
+        <v>390.3261544272641</v>
       </c>
       <c r="U16" t="n">
-        <v>278.884841879173</v>
+        <v>278.8848418791733</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701885</v>
+        <v>211.4309369701887</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980456</v>
+        <v>98.31875740980473</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456488</v>
+        <v>54.28865025456497</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340408</v>
+        <v>463.5335379340413</v>
       </c>
       <c r="C17" t="n">
-        <v>410.219491884427</v>
+        <v>410.2194918844275</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438552</v>
+        <v>369.4643728438555</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372139</v>
+        <v>294.6620291372141</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019085</v>
+        <v>187.8189404019088</v>
       </c>
       <c r="G17" t="n">
-        <v>65.17929883267294</v>
+        <v>65.17929883267293</v>
       </c>
       <c r="H17" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J17" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K17" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L17" t="n">
-        <v>201.7617434441223</v>
+        <v>61.8583283943405</v>
       </c>
       <c r="M17" t="n">
-        <v>282.682054167274</v>
+        <v>142.7786391174922</v>
       </c>
       <c r="N17" t="n">
-        <v>412.2841553860712</v>
+        <v>218.1658890507304</v>
       </c>
       <c r="O17" t="n">
-        <v>446.5608390195007</v>
+        <v>252.4425726841599</v>
       </c>
       <c r="P17" t="n">
-        <v>446.5608390195007</v>
+        <v>439.1193259642357</v>
       </c>
       <c r="Q17" t="n">
-        <v>633.2375922995765</v>
+        <v>625.7960792443115</v>
       </c>
       <c r="R17" t="n">
-        <v>633.2375922995765</v>
+        <v>638.2320701135817</v>
       </c>
       <c r="S17" t="n">
-        <v>633.2375922995765</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="T17" t="n">
-        <v>707.4481717933589</v>
+        <v>707.4481717933591</v>
       </c>
       <c r="U17" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557695</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338446</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059204</v>
+        <v>626.688713905921</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.970556707548</v>
+        <v>540.9705567075484</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>373.3154131506464</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C18" t="n">
-        <v>183.9031388836101</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D18" t="n">
-        <v>23.12302264464182</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E18" t="n">
-        <v>23.12302264464182</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F18" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G18" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H18" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I18" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J18" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635115</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L18" t="n">
-        <v>170.4486221681694</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M18" t="n">
-        <v>352.1703666486675</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O18" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P18" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q18" t="n">
-        <v>754.2495082023262</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R18" t="n">
-        <v>754.2495082023262</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="S18" t="n">
-        <v>563.7824606764863</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="T18" t="n">
-        <v>563.7824606764863</v>
+        <v>420.7974658975948</v>
       </c>
       <c r="U18" t="n">
-        <v>563.7824606764863</v>
+        <v>230.3304183717548</v>
       </c>
       <c r="V18" t="n">
-        <v>563.7824606764863</v>
+        <v>39.86337084591486</v>
       </c>
       <c r="W18" t="n">
-        <v>373.3154131506464</v>
+        <v>39.86337084591486</v>
       </c>
       <c r="X18" t="n">
-        <v>373.3154131506464</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y18" t="n">
-        <v>373.3154131506464</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>463.5335379340412</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844274</v>
+        <v>410.2194918844275</v>
       </c>
       <c r="D20" t="n">
         <v>369.4643728438556</v>
@@ -5744,55 +5744,55 @@
         <v>65.17929883267293</v>
       </c>
       <c r="H20" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I20" t="n">
-        <v>32.24891577522374</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J20" t="n">
-        <v>218.9256690552995</v>
+        <v>81.03204867165331</v>
       </c>
       <c r="K20" t="n">
-        <v>405.6024223353752</v>
+        <v>81.03204867165331</v>
       </c>
       <c r="L20" t="n">
-        <v>452.3757605656692</v>
+        <v>127.8053869019473</v>
       </c>
       <c r="M20" t="n">
-        <v>533.2960712888209</v>
+        <v>314.482140182023</v>
       </c>
       <c r="N20" t="n">
-        <v>719.9728245688966</v>
+        <v>389.8693901152611</v>
       </c>
       <c r="O20" t="n">
-        <v>754.2495082023262</v>
+        <v>424.1460737486907</v>
       </c>
       <c r="P20" t="n">
-        <v>754.2495082023262</v>
+        <v>610.8228270287665</v>
       </c>
       <c r="Q20" t="n">
-        <v>754.2495082023262</v>
+        <v>610.8228270287665</v>
       </c>
       <c r="R20" t="n">
-        <v>754.2495082023262</v>
+        <v>610.8228270287665</v>
       </c>
       <c r="S20" t="n">
-        <v>754.2495082023262</v>
+        <v>680.0389287085438</v>
       </c>
       <c r="T20" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557697</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338448</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059207</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y20" t="n">
         <v>540.9705567075483</v>
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>204.4972644310828</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="C21" t="n">
-        <v>15.08499016404652</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="D21" t="n">
-        <v>15.08499016404652</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="E21" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F21" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G21" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H21" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J21" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635123</v>
       </c>
       <c r="L21" t="n">
         <v>170.4486221681695</v>
@@ -5841,40 +5841,40 @@
         <v>352.1703666486676</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110302</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P21" t="n">
-        <v>754.2495082023262</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q21" t="n">
-        <v>754.2495082023262</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R21" t="n">
-        <v>754.2495082023262</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="S21" t="n">
-        <v>754.2495082023262</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="T21" t="n">
-        <v>754.2495082023262</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="U21" t="n">
-        <v>585.4313594827627</v>
+        <v>420.7974658975948</v>
       </c>
       <c r="V21" t="n">
-        <v>394.9643119569228</v>
+        <v>420.7974658975948</v>
       </c>
       <c r="W21" t="n">
-        <v>394.9643119569228</v>
+        <v>379.115241568472</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4972644310828</v>
+        <v>379.115241568472</v>
       </c>
       <c r="Y21" t="n">
-        <v>204.4972644310828</v>
+        <v>188.6481940426321</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340407</v>
+        <v>463.5335379340414</v>
       </c>
       <c r="C23" t="n">
-        <v>410.219491884427</v>
+        <v>410.2194918844277</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438552</v>
+        <v>369.4643728438557</v>
       </c>
       <c r="E23" t="n">
         <v>294.6620291372139</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019086</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267291</v>
+        <v>65.17929883267293</v>
       </c>
       <c r="H23" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I23" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J23" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K23" t="n">
-        <v>177.7871045768174</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L23" t="n">
-        <v>364.463857856893</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="M23" t="n">
-        <v>445.3841685800448</v>
+        <v>282.682054167274</v>
       </c>
       <c r="N23" t="n">
-        <v>520.7714185132829</v>
+        <v>358.0693041005121</v>
       </c>
       <c r="O23" t="n">
-        <v>707.4481717933586</v>
+        <v>544.7460573805879</v>
       </c>
       <c r="P23" t="n">
-        <v>707.4481717933586</v>
+        <v>544.7460573805879</v>
       </c>
       <c r="Q23" t="n">
-        <v>707.4481717933586</v>
+        <v>544.7460573805879</v>
       </c>
       <c r="R23" t="n">
-        <v>707.4481717933586</v>
+        <v>646.284569583503</v>
       </c>
       <c r="S23" t="n">
-        <v>707.4481717933586</v>
+        <v>680.0389287085438</v>
       </c>
       <c r="T23" t="n">
-        <v>707.4481717933586</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557695</v>
+        <v>730.55739525577</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338446</v>
+        <v>689.6767164338453</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059204</v>
+        <v>626.6887139059211</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075479</v>
+        <v>540.9705567075486</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>188.648194042632</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C24" t="n">
-        <v>188.648194042632</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D24" t="n">
-        <v>188.648194042632</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E24" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F24" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G24" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H24" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I24" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J24" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635118</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L24" t="n">
         <v>170.4486221681695</v>
@@ -6078,40 +6078,40 @@
         <v>352.1703666486676</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287433</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110299</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.2495082023258</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R24" t="n">
-        <v>754.2495082023258</v>
+        <v>618.1801765352211</v>
       </c>
       <c r="S24" t="n">
-        <v>754.2495082023258</v>
+        <v>427.7131290093811</v>
       </c>
       <c r="T24" t="n">
-        <v>754.2495082023258</v>
+        <v>237.2460814835412</v>
       </c>
       <c r="U24" t="n">
-        <v>754.2495082023258</v>
+        <v>237.2460814835412</v>
       </c>
       <c r="V24" t="n">
-        <v>754.2495082023258</v>
+        <v>46.77903395770119</v>
       </c>
       <c r="W24" t="n">
-        <v>569.5822890943118</v>
+        <v>46.77903395770119</v>
       </c>
       <c r="X24" t="n">
-        <v>379.1152415684719</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.648194042632</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.08499016404652</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971339</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792728</v>
+        <v>882.8924400792727</v>
       </c>
       <c r="D26" t="n">
         <v>757.331649196248</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471536</v>
+        <v>597.7236336471537</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693953</v>
+        <v>406.0748730693954</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577063</v>
+        <v>198.6295596577064</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662742</v>
+        <v>63.72957914662741</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
@@ -6227,13 +6227,13 @@
         <v>171.2683996847217</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629836</v>
+        <v>375.9831015629835</v>
       </c>
       <c r="L26" t="n">
-        <v>634.08874669463</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191342</v>
+        <v>926.3413643191341</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153725</v>
@@ -6269,7 +6269,7 @@
         <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587299</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.7017779609851</v>
+        <v>135.5629998595776</v>
       </c>
       <c r="C27" t="n">
-        <v>196.7017779609851</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D27" t="n">
         <v>35.92166172201684</v>
@@ -6306,49 +6306,49 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K27" t="n">
-        <v>73.91372875432151</v>
+        <v>73.91372875432148</v>
       </c>
       <c r="L27" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M27" t="n">
-        <v>373.0070382066379</v>
+        <v>373.0070382066378</v>
       </c>
       <c r="N27" t="n">
-        <v>577.9583061004877</v>
+        <v>577.9583061004876</v>
       </c>
       <c r="O27" t="n">
-        <v>709.7015933827746</v>
+        <v>709.7015933827745</v>
       </c>
       <c r="P27" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.3606943740706</v>
+        <v>786.4450312622841</v>
       </c>
       <c r="R27" t="n">
-        <v>793.3606943740706</v>
+        <v>650.375699595179</v>
       </c>
       <c r="S27" t="n">
-        <v>793.3606943740706</v>
+        <v>650.375699595179</v>
       </c>
       <c r="T27" t="n">
-        <v>791.8422880327872</v>
+        <v>648.8572932538956</v>
       </c>
       <c r="U27" t="n">
-        <v>552.2179873571001</v>
+        <v>624.8562013337972</v>
       </c>
       <c r="V27" t="n">
-        <v>309.1382692607342</v>
+        <v>597.39969199302</v>
       </c>
       <c r="W27" t="n">
-        <v>255.3629087466142</v>
+        <v>328.0011227233114</v>
       </c>
       <c r="X27" t="n">
-        <v>206.7192622700688</v>
+        <v>324.1163370955964</v>
       </c>
       <c r="Y27" t="n">
-        <v>196.7017779609851</v>
+        <v>314.0988527865127</v>
       </c>
     </row>
     <row r="28">
@@ -6391,40 +6391,40 @@
         <v>35.92166172201684</v>
       </c>
       <c r="M28" t="n">
-        <v>35.92166172201684</v>
+        <v>112.8332968425536</v>
       </c>
       <c r="N28" t="n">
-        <v>35.92166172201684</v>
+        <v>112.8332968425536</v>
       </c>
       <c r="O28" t="n">
-        <v>35.92166172201684</v>
+        <v>112.8332968425536</v>
       </c>
       <c r="P28" t="n">
-        <v>189.3782030019065</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398196</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063874</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6440,43 +6440,43 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792733</v>
+        <v>882.8924400792731</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962486</v>
+        <v>757.3316491962483</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471542</v>
+        <v>597.723633647154</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693959</v>
+        <v>406.0748730693957</v>
       </c>
       <c r="G29" t="n">
-        <v>198.629559657707</v>
+        <v>198.6295596577068</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662766</v>
+        <v>63.72957914662741</v>
       </c>
       <c r="I29" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847217</v>
+        <v>171.2683996847218</v>
       </c>
       <c r="K29" t="n">
         <v>375.9831015629837</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946302</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191344</v>
+        <v>926.3413643191343</v>
       </c>
       <c r="N29" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.669911688507</v>
+        <v>1458.669911688506</v>
       </c>
       <c r="P29" t="n">
         <v>1655.109002436483</v>
@@ -6488,10 +6488,10 @@
         <v>1796.083086100842</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.898883169498</v>
+        <v>1781.898883169497</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.81056618245</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U29" t="n">
         <v>1735.75648745189</v>
@@ -6503,7 +6503,7 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y29" t="n">
         <v>1183.2548485873</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>241.4606388098155</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C30" t="n">
-        <v>241.4606388098155</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D30" t="n">
-        <v>241.4606388098155</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E30" t="n">
-        <v>241.4606388098155</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F30" t="n">
-        <v>186.1685553479346</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G30" t="n">
         <v>35.92166172201684</v>
@@ -6543,49 +6543,49 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K30" t="n">
-        <v>73.91372875432151</v>
+        <v>73.91372875432148</v>
       </c>
       <c r="L30" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M30" t="n">
-        <v>373.0070382066379</v>
+        <v>373.0070382066378</v>
       </c>
       <c r="N30" t="n">
-        <v>577.9583061004877</v>
+        <v>577.9583061004876</v>
       </c>
       <c r="O30" t="n">
-        <v>709.7015933827746</v>
+        <v>709.7015933827745</v>
       </c>
       <c r="P30" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="R30" t="n">
-        <v>793.3606943740706</v>
+        <v>657.2913627069653</v>
       </c>
       <c r="S30" t="n">
-        <v>793.3606943740706</v>
+        <v>657.2913627069653</v>
       </c>
       <c r="T30" t="n">
-        <v>791.8422880327872</v>
+        <v>655.7729563656819</v>
       </c>
       <c r="U30" t="n">
-        <v>552.2179873571001</v>
+        <v>631.7718644455836</v>
       </c>
       <c r="V30" t="n">
-        <v>524.7614780163228</v>
+        <v>388.6921463492176</v>
       </c>
       <c r="W30" t="n">
-        <v>255.3629087466142</v>
+        <v>334.9167858350976</v>
       </c>
       <c r="X30" t="n">
-        <v>251.4781231188992</v>
+        <v>261.5623547866892</v>
       </c>
       <c r="Y30" t="n">
-        <v>241.4606388098155</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="31">
@@ -6604,43 +6604,43 @@
         <v>35.92166172201684</v>
       </c>
       <c r="E31" t="n">
-        <v>106.9945888232666</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F31" t="n">
-        <v>180.7892823283568</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G31" t="n">
-        <v>225.1079712702495</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H31" t="n">
-        <v>225.1079712702495</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I31" t="n">
-        <v>225.1079712702495</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J31" t="n">
-        <v>256.3464833623372</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K31" t="n">
-        <v>256.3464833623372</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L31" t="n">
-        <v>256.3464833623372</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M31" t="n">
-        <v>256.3464833623372</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="N31" t="n">
-        <v>256.3464833623372</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="O31" t="n">
-        <v>256.3464833623372</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="P31" t="n">
-        <v>256.3464833623372</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.3464833623372</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R31" t="n">
         <v>266.2898381224434</v>
@@ -6658,10 +6658,10 @@
         <v>125.7908590024693</v>
       </c>
       <c r="W31" t="n">
-        <v>48.1709292839819</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063871</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y31" t="n">
         <v>35.92166172201684</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971341</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792737</v>
+        <v>882.8924400792739</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962488</v>
+        <v>757.3316491962491</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471544</v>
+        <v>597.7236336471547</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693961</v>
+        <v>406.0748730693963</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577068</v>
+        <v>198.6295596577073</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662742</v>
+        <v>63.72957914662741</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201684</v>
@@ -6701,13 +6701,13 @@
         <v>171.2683996847217</v>
       </c>
       <c r="K32" t="n">
-        <v>375.983101562984</v>
+        <v>375.9831015629837</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946303</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191345</v>
+        <v>926.3413643191341</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153725</v>
@@ -6716,7 +6716,7 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q32" t="n">
         <v>1777.662612870715</v>
@@ -6728,10 +6728,10 @@
         <v>1781.898883169497</v>
       </c>
       <c r="T32" t="n">
-        <v>1772.810566182449</v>
+        <v>1772.81056618245</v>
       </c>
       <c r="U32" t="n">
-        <v>1735.75648745189</v>
+        <v>1735.756487451891</v>
       </c>
       <c r="V32" t="n">
         <v>1627.258702662881</v>
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.7017779609851</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C33" t="n">
-        <v>196.7017779609851</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D33" t="n">
         <v>35.92166172201684</v>
@@ -6780,49 +6780,49 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432151</v>
+        <v>73.91372875432148</v>
       </c>
       <c r="L33" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0070382066379</v>
+        <v>373.0070382066378</v>
       </c>
       <c r="N33" t="n">
-        <v>577.9583061004877</v>
+        <v>577.9583061004876</v>
       </c>
       <c r="O33" t="n">
-        <v>709.7015933827746</v>
+        <v>709.7015933827745</v>
       </c>
       <c r="P33" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="Q33" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="R33" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="S33" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="T33" t="n">
-        <v>791.8422880327872</v>
+        <v>791.8422880327871</v>
       </c>
       <c r="U33" t="n">
-        <v>552.2179873571001</v>
+        <v>562.3022190248901</v>
       </c>
       <c r="V33" t="n">
-        <v>309.1382692607342</v>
+        <v>319.2225009285242</v>
       </c>
       <c r="W33" t="n">
-        <v>210.6040478977838</v>
+        <v>49.8239316588155</v>
       </c>
       <c r="X33" t="n">
-        <v>206.7192622700688</v>
+        <v>45.93914603110052</v>
       </c>
       <c r="Y33" t="n">
-        <v>196.7017779609851</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="34">
@@ -6841,64 +6841,64 @@
         <v>35.92166172201684</v>
       </c>
       <c r="E34" t="n">
-        <v>106.9945888232665</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F34" t="n">
-        <v>106.9945888232665</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G34" t="n">
-        <v>125.8518370668361</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H34" t="n">
-        <v>125.8518370668361</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I34" t="n">
-        <v>173.9841929857892</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J34" t="n">
-        <v>266.2898381224435</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K34" t="n">
-        <v>266.2898381224435</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L34" t="n">
-        <v>266.2898381224435</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M34" t="n">
-        <v>266.2898381224435</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="N34" t="n">
-        <v>266.2898381224435</v>
+        <v>82.09718027320679</v>
       </c>
       <c r="O34" t="n">
-        <v>266.2898381224435</v>
+        <v>256.3464833623372</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224435</v>
+        <v>256.3464833623372</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224435</v>
+        <v>256.3464833623372</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398196</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063874</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201684</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0119765837461</v>
+        <v>623.0119765837458</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248354</v>
+        <v>544.0768043248352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749668</v>
+        <v>477.7005590749666</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2770891590285</v>
+        <v>377.2770891590283</v>
       </c>
       <c r="F35" t="n">
         <v>244.8128742144263</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589363</v>
+        <v>96.55210643589356</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J35" t="n">
-        <v>20.83667155797032</v>
+        <v>214.1901826957315</v>
       </c>
       <c r="K35" t="n">
-        <v>278.690482087853</v>
+        <v>214.1901826957315</v>
       </c>
       <c r="L35" t="n">
-        <v>536.5442926177357</v>
+        <v>260.9635209260255</v>
       </c>
       <c r="M35" t="n">
-        <v>617.4646033408874</v>
+        <v>497.1633967995267</v>
       </c>
       <c r="N35" t="n">
-        <v>875.3184138707701</v>
+        <v>572.5506467327648</v>
       </c>
       <c r="O35" t="n">
-        <v>997.7287420164706</v>
+        <v>606.8273303661944</v>
       </c>
       <c r="P35" t="n">
-        <v>997.7287420164706</v>
+        <v>861.2731942892274</v>
       </c>
       <c r="Q35" t="n">
-        <v>997.7287420164706</v>
+        <v>1041.833577898515</v>
       </c>
       <c r="R35" t="n">
-        <v>997.7287420164706</v>
+        <v>1041.833577898515</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.833577898516</v>
+        <v>1041.833577898515</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.833577898516</v>
+        <v>1041.833577898515</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.833577898516</v>
+        <v>1041.833577898515</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426625</v>
+        <v>992.5203387426618</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114406</v>
+        <v>926.0185337114401</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742196</v>
+        <v>837.4094049742191</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0701215665501</v>
+        <v>726.0701215665498</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>505.4268853014419</v>
+        <v>231.5420787661761</v>
       </c>
       <c r="C36" t="n">
-        <v>505.4268853014419</v>
+        <v>42.12980449913982</v>
       </c>
       <c r="D36" t="n">
-        <v>344.6467690624736</v>
+        <v>42.12980449913982</v>
       </c>
       <c r="E36" t="n">
-        <v>171.0835651838881</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F36" t="n">
-        <v>171.0835651838881</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027498</v>
+        <v>58.82873859027497</v>
       </c>
       <c r="L36" t="n">
         <v>176.2003035620933</v>
@@ -7026,40 +7026,40 @@
         <v>357.9220480425914</v>
       </c>
       <c r="N36" t="n">
-        <v>562.8733159364411</v>
+        <v>562.873315936441</v>
       </c>
       <c r="O36" t="n">
-        <v>694.6166032187281</v>
+        <v>694.616603218728</v>
       </c>
       <c r="P36" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="R36" t="n">
-        <v>778.2757042100241</v>
+        <v>642.2063725429188</v>
       </c>
       <c r="S36" t="n">
-        <v>778.2757042100241</v>
+        <v>448.6836938630481</v>
       </c>
       <c r="T36" t="n">
-        <v>778.2757042100241</v>
+        <v>231.5420787661761</v>
       </c>
       <c r="U36" t="n">
-        <v>748.5066033978078</v>
+        <v>231.5420787661761</v>
       </c>
       <c r="V36" t="n">
-        <v>505.4268853014419</v>
+        <v>231.5420787661761</v>
       </c>
       <c r="W36" t="n">
-        <v>505.4268853014419</v>
+        <v>231.5420787661761</v>
       </c>
       <c r="X36" t="n">
-        <v>505.4268853014419</v>
+        <v>231.5420787661761</v>
       </c>
       <c r="Y36" t="n">
-        <v>505.4268853014419</v>
+        <v>231.5420787661761</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633977</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837464</v>
+        <v>623.011976583746</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248358</v>
+        <v>544.0768043248354</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749671</v>
+        <v>477.7005590749668</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590288</v>
+        <v>377.2770891590287</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144265</v>
+        <v>244.8128742144263</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589363</v>
+        <v>96.55210643589356</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516578</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J38" t="n">
-        <v>244.9424160029269</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K38" t="n">
-        <v>244.9424160029269</v>
+        <v>97.33984198878802</v>
       </c>
       <c r="L38" t="n">
-        <v>502.7962265328097</v>
+        <v>144.113180219082</v>
       </c>
       <c r="M38" t="n">
-        <v>751.6092607225605</v>
+        <v>225.0334909422337</v>
       </c>
       <c r="N38" t="n">
-        <v>826.9965106557986</v>
+        <v>482.8873014721162</v>
       </c>
       <c r="O38" t="n">
-        <v>861.2731942892282</v>
+        <v>740.7411120019988</v>
       </c>
       <c r="P38" t="n">
-        <v>861.2731942892282</v>
+        <v>740.7411120019988</v>
       </c>
       <c r="Q38" t="n">
-        <v>1041.833577898516</v>
+        <v>921.3014956112867</v>
       </c>
       <c r="R38" t="n">
-        <v>1041.833577898516</v>
+        <v>997.7287420164699</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.833577898516</v>
+        <v>1041.833577898515</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.833577898516</v>
+        <v>1041.833577898515</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.833577898516</v>
+        <v>1041.833577898515</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426627</v>
+        <v>992.5203387426623</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114409</v>
+        <v>926.0185337114403</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742198</v>
+        <v>837.4094049742193</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665505</v>
+        <v>726.07012156655</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>331.511281466644</v>
+        <v>51.50483797756857</v>
       </c>
       <c r="C39" t="n">
-        <v>331.511281466644</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D39" t="n">
-        <v>331.511281466644</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E39" t="n">
-        <v>331.511281466644</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F39" t="n">
-        <v>171.0835651838881</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K39" t="n">
-        <v>58.82873859027498</v>
+        <v>58.82873859027497</v>
       </c>
       <c r="L39" t="n">
         <v>176.2003035620933</v>
@@ -7263,40 +7263,40 @@
         <v>357.9220480425914</v>
       </c>
       <c r="N39" t="n">
-        <v>562.8733159364411</v>
+        <v>562.873315936441</v>
       </c>
       <c r="O39" t="n">
-        <v>694.6166032187281</v>
+        <v>694.616603218728</v>
       </c>
       <c r="P39" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.2757042100241</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="R39" t="n">
-        <v>778.2757042100241</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="S39" t="n">
-        <v>778.2757042100241</v>
+        <v>771.3600410982376</v>
       </c>
       <c r="T39" t="n">
-        <v>778.2757042100241</v>
+        <v>554.2184260013656</v>
       </c>
       <c r="U39" t="n">
-        <v>594.6005688147541</v>
+        <v>314.5941253256785</v>
       </c>
       <c r="V39" t="n">
-        <v>594.6005688147541</v>
+        <v>314.5941253256785</v>
       </c>
       <c r="W39" t="n">
-        <v>331.511281466644</v>
+        <v>51.50483797756857</v>
       </c>
       <c r="X39" t="n">
-        <v>331.511281466644</v>
+        <v>51.50483797756857</v>
       </c>
       <c r="Y39" t="n">
-        <v>331.511281466644</v>
+        <v>51.50483797756857</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="P40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="R40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797032</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="41">
@@ -7412,31 +7412,31 @@
         <v>28.06910159062233</v>
       </c>
       <c r="K41" t="n">
-        <v>260.0383433367451</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="L41" t="n">
-        <v>545.3985283362524</v>
+        <v>313.4292865901295</v>
       </c>
       <c r="M41" t="n">
-        <v>626.3188390594041</v>
+        <v>632.9364440824945</v>
       </c>
       <c r="N41" t="n">
-        <v>940.2929357618555</v>
+        <v>738.7426878216886</v>
       </c>
       <c r="O41" t="n">
-        <v>998.2536156494818</v>
+        <v>1011.606218224332</v>
       </c>
       <c r="P41" t="n">
-        <v>1221.947246265319</v>
+        <v>1235.299848840169</v>
       </c>
       <c r="Q41" t="n">
-        <v>1371.755396567412</v>
+        <v>1385.107999142261</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.755396567412</v>
+        <v>1385.107999142261</v>
       </c>
       <c r="S41" t="n">
-        <v>1385.107999142262</v>
+        <v>1385.107999142261</v>
       </c>
       <c r="T41" t="n">
         <v>1403.455079531117</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>188.4968178733782</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="C42" t="n">
-        <v>188.4968178733782</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="D42" t="n">
-        <v>188.4968178733782</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="E42" t="n">
-        <v>188.4968178733782</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="F42" t="n">
         <v>28.06910159062233</v>
@@ -7491,7 +7491,7 @@
         <v>28.06910159062233</v>
       </c>
       <c r="K42" t="n">
-        <v>66.061168622927</v>
+        <v>66.06116862292698</v>
       </c>
       <c r="L42" t="n">
         <v>183.4327335947453</v>
@@ -7500,40 +7500,40 @@
         <v>365.1544780752434</v>
       </c>
       <c r="N42" t="n">
-        <v>570.1057459690932</v>
+        <v>570.1057459690931</v>
       </c>
       <c r="O42" t="n">
-        <v>701.8490332513801</v>
+        <v>701.84903325138</v>
       </c>
       <c r="P42" t="n">
-        <v>785.5081342426761</v>
+        <v>785.508134242676</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308896</v>
       </c>
       <c r="R42" t="n">
-        <v>785.5081342426761</v>
+        <v>642.5231394637844</v>
       </c>
       <c r="S42" t="n">
-        <v>785.5081342426761</v>
+        <v>540.547388956697</v>
       </c>
       <c r="T42" t="n">
-        <v>785.5081342426761</v>
+        <v>540.547388956697</v>
       </c>
       <c r="U42" t="n">
-        <v>785.5081342426761</v>
+        <v>540.547388956697</v>
       </c>
       <c r="V42" t="n">
-        <v>542.4284161463102</v>
+        <v>297.467670860331</v>
       </c>
       <c r="W42" t="n">
-        <v>367.0326708003133</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="X42" t="n">
-        <v>367.0326708003133</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="Y42" t="n">
-        <v>367.0326708003133</v>
+        <v>28.06910159062233</v>
       </c>
     </row>
     <row r="43">
@@ -7567,22 +7567,22 @@
         <v>28.06910159062233</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1759968085602</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1759968085602</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1759968085602</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1759968085602</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1759968085602</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1759968085602</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="P43" t="n">
         <v>130.1759968085602</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.5041758676715</v>
+        <v>818.504175867672</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002155</v>
+        <v>708.1923754002157</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418012</v>
+        <v>610.4395019418014</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173171</v>
+        <v>478.6394038173173</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7985606641694</v>
+        <v>314.7985606641695</v>
       </c>
       <c r="G44" t="n">
         <v>135.1611646770911</v>
@@ -7649,28 +7649,28 @@
         <v>190.670379421188</v>
       </c>
       <c r="K44" t="n">
-        <v>190.670379421188</v>
+        <v>422.6396211673108</v>
       </c>
       <c r="L44" t="n">
-        <v>476.0305644206952</v>
+        <v>707.999806166818</v>
       </c>
       <c r="M44" t="n">
-        <v>795.5377219130603</v>
+        <v>1027.506963659183</v>
       </c>
       <c r="N44" t="n">
-        <v>1109.511818615512</v>
+        <v>1102.894213592421</v>
       </c>
       <c r="O44" t="n">
-        <v>1143.788502248941</v>
+        <v>1194.619313556187</v>
       </c>
       <c r="P44" t="n">
-        <v>1367.482132864779</v>
+        <v>1194.619313556187</v>
       </c>
       <c r="Q44" t="n">
-        <v>1403.455079531117</v>
+        <v>1344.427463858279</v>
       </c>
       <c r="R44" t="n">
-        <v>1403.455079531117</v>
+        <v>1390.102476956267</v>
       </c>
       <c r="S44" t="n">
         <v>1403.455079531117</v>
@@ -7691,7 +7691,7 @@
         <v>1095.654860675236</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590211</v>
+        <v>952.9389490590215</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>71.31228560882477</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="C45" t="n">
-        <v>71.31228560882477</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="D45" t="n">
         <v>28.06910159062233</v>
@@ -7728,49 +7728,49 @@
         <v>28.06910159062233</v>
       </c>
       <c r="K45" t="n">
-        <v>66.061168622927</v>
+        <v>66.06116862292697</v>
       </c>
       <c r="L45" t="n">
-        <v>183.4327335947453</v>
+        <v>183.4327335947452</v>
       </c>
       <c r="M45" t="n">
-        <v>365.1544780752434</v>
+        <v>365.1544780752433</v>
       </c>
       <c r="N45" t="n">
-        <v>570.1057459690932</v>
+        <v>570.1057459690931</v>
       </c>
       <c r="O45" t="n">
-        <v>701.8490332513801</v>
+        <v>701.84903325138</v>
       </c>
       <c r="P45" t="n">
-        <v>785.5081342426761</v>
+        <v>785.508134242676</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308896</v>
       </c>
       <c r="R45" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308896</v>
       </c>
       <c r="S45" t="n">
-        <v>785.5081342426761</v>
+        <v>585.069792451019</v>
       </c>
       <c r="T45" t="n">
-        <v>785.5081342426761</v>
+        <v>585.069792451019</v>
       </c>
       <c r="U45" t="n">
-        <v>785.5081342426761</v>
+        <v>458.2130906717392</v>
       </c>
       <c r="V45" t="n">
-        <v>542.4284161463102</v>
+        <v>458.2130906717392</v>
       </c>
       <c r="W45" t="n">
-        <v>516.4609730568008</v>
+        <v>432.2456475822298</v>
       </c>
       <c r="X45" t="n">
-        <v>296.9529786734971</v>
+        <v>432.2456475822298</v>
       </c>
       <c r="Y45" t="n">
-        <v>71.31228560882477</v>
+        <v>206.6049545175574</v>
       </c>
     </row>
     <row r="46">
@@ -7792,46 +7792,46 @@
         <v>28.06910159062233</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06910159062233</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06910159062233</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06910159062233</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06910159062233</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1759968085602</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1759968085602</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1759968085602</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1759968085602</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1759968085602</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1759968085602</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1759968085602</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1759968085602</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1759968085602</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1759968085602</v>
+        <v>129.1183349635734</v>
       </c>
       <c r="T46" t="n">
         <v>130.1759968085602</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9726,10 +9726,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O24" t="n">
-        <v>255.2227828913204</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.42330713366945</v>
+        <v>195.7575910532781</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>90.19989376348344</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E11" t="n">
         <v>193.1492627370809</v>
       </c>
       <c r="F11" t="n">
-        <v>224.8696003154582</v>
+        <v>224.8696003154583</v>
       </c>
       <c r="G11" t="n">
         <v>240.5081876210496</v>
@@ -23276,7 +23276,7 @@
         <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.667165593842</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718766</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550869</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065502</v>
+        <v>44.13476116065505</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673099</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845968</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012116</v>
+        <v>159.5668145012117</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938946</v>
+        <v>15.39354104331309</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.7575910532781</v>
+        <v>7.195214002696588</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8758480566236</v>
+        <v>171.8758480566237</v>
       </c>
       <c r="D14" t="n">
-        <v>159.442510317672</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E14" t="n">
-        <v>4.586885686499357</v>
+        <v>193.149262737081</v>
       </c>
       <c r="F14" t="n">
-        <v>42.73388528591819</v>
+        <v>224.8696003154583</v>
       </c>
       <c r="G14" t="n">
-        <v>51.94581057046801</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494461</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.66716559384206</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13476116065512</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673099</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845968</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012116</v>
+        <v>159.5668145012117</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4530649701509</v>
+        <v>87.01235375630623</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938946</v>
+        <v>203.9559180938947</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-2.412408669815378e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856013.5615012434</v>
+        <v>856013.5615012435</v>
       </c>
     </row>
     <row r="7">
@@ -26314,25 +26314,25 @@
         <v>617352.3966235217</v>
       </c>
       <c r="C2" t="n">
-        <v>617352.3966235216</v>
+        <v>617352.3966235217</v>
       </c>
       <c r="D2" t="n">
-        <v>617352.3966235218</v>
+        <v>617352.3966235217</v>
       </c>
       <c r="E2" t="n">
         <v>531993.0623143361</v>
       </c>
       <c r="F2" t="n">
-        <v>531993.0623143361</v>
+        <v>531993.0623143354</v>
       </c>
       <c r="G2" t="n">
-        <v>618602.9842009754</v>
+        <v>618602.9842009756</v>
       </c>
       <c r="H2" t="n">
-        <v>618602.9842009753</v>
+        <v>618602.9842009755</v>
       </c>
       <c r="I2" t="n">
-        <v>618602.9842009754</v>
+        <v>618602.9842009755</v>
       </c>
       <c r="J2" t="n">
         <v>618602.9842009759</v>
@@ -26341,19 +26341,19 @@
         <v>618602.9842009761</v>
       </c>
       <c r="L2" t="n">
-        <v>618602.9842009759</v>
+        <v>618602.984200976</v>
       </c>
       <c r="M2" t="n">
+        <v>618602.9842009754</v>
+      </c>
+      <c r="N2" t="n">
+        <v>618602.9842009755</v>
+      </c>
+      <c r="O2" t="n">
         <v>618602.9842009753</v>
       </c>
-      <c r="N2" t="n">
-        <v>618602.9842009754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>618602.984200975</v>
-      </c>
       <c r="P2" t="n">
-        <v>618602.984200975</v>
+        <v>618602.9842009752</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842064</v>
+        <v>280312.8421842063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400478</v>
+        <v>95275.95397400485</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143645.0035243413</v>
+        <v>143645.0035243412</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400476</v>
+        <v>95275.95397400485</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145963</v>
+        <v>46874.16014145965</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660014</v>
+        <v>72403.48181660011</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>325346.2938622804</v>
       </c>
       <c r="F4" t="n">
-        <v>325346.2938622804</v>
+        <v>325346.2938622803</v>
       </c>
       <c r="G4" t="n">
         <v>395809.2702669877</v>
       </c>
       <c r="H4" t="n">
-        <v>395809.2702669878</v>
+        <v>395809.2702669877</v>
       </c>
       <c r="I4" t="n">
         <v>395809.2702669877</v>
@@ -26488,28 +26488,28 @@
         <v>38676.1388413194</v>
       </c>
       <c r="I5" t="n">
-        <v>38676.13884131939</v>
+        <v>38676.1388413194</v>
       </c>
       <c r="J5" t="n">
-        <v>47453.77647951489</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="K5" t="n">
-        <v>47453.7764795149</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="L5" t="n">
-        <v>47453.77647951489</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="M5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="N5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="O5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152495</v>
       </c>
       <c r="P5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152495</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148202.1580022064</v>
+        <v>148197.6916180013</v>
       </c>
       <c r="C6" t="n">
-        <v>148202.1580022063</v>
+        <v>148197.6916180012</v>
       </c>
       <c r="D6" t="n">
-        <v>148202.1580022066</v>
+        <v>148197.6916180013</v>
       </c>
       <c r="E6" t="n">
-        <v>-102330.0198551694</v>
+        <v>-102639.3410047644</v>
       </c>
       <c r="F6" t="n">
-        <v>177982.822329037</v>
+        <v>177673.5011794413</v>
       </c>
       <c r="G6" t="n">
-        <v>88841.62111866349</v>
+        <v>88841.62111866366</v>
       </c>
       <c r="H6" t="n">
-        <v>184117.5750926681</v>
+        <v>184117.5750926684</v>
       </c>
       <c r="I6" t="n">
-        <v>184117.5750926683</v>
+        <v>184117.5750926684</v>
       </c>
       <c r="J6" t="n">
-        <v>30808.55014878629</v>
+        <v>30808.55014878635</v>
       </c>
       <c r="K6" t="n">
         <v>174453.5536731278</v>
       </c>
       <c r="L6" t="n">
-        <v>79177.59969912283</v>
+        <v>79177.59969912285</v>
       </c>
       <c r="M6" t="n">
-        <v>134943.1833229786</v>
+        <v>134943.1833229787</v>
       </c>
       <c r="N6" t="n">
-        <v>181817.3434644383</v>
+        <v>181817.3434644385</v>
       </c>
       <c r="O6" t="n">
-        <v>106141.39518958</v>
+        <v>106141.3951895804</v>
       </c>
       <c r="P6" t="n">
-        <v>178544.8770061803</v>
+        <v>178544.8770061804</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K2" t="n">
         <v>213.4669766680328</v>
       </c>
       <c r="L2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M2" t="n">
         <v>272.0596768448573</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="F3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="G3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="H3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="I3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="J3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="K3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="L3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="M3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="N3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="O3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="P3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="F4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="G4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="H4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="I4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="M4" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="N4" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8637698827792</v>
+        <v>350.8637698827791</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8637698827792</v>
+        <v>350.8637698827791</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.0949424675061</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682454</v>
+        <v>58.59270017682456</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406673</v>
+        <v>63.30917227406667</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746291</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815018</v>
+        <v>90.40537540815029</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675061</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,13 +28111,13 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J11" t="n">
-        <v>76.75309993802783</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K11" t="n">
-        <v>178.3296493245552</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M11" t="n">
         <v>106.8246894514384</v>
@@ -28126,10 +28126,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>139.7516048372061</v>
+        <v>6.7942271407452</v>
       </c>
       <c r="P11" t="n">
-        <v>15.04365268017749</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q11" t="n">
         <v>178.3296493245552</v>
@@ -28172,7 +28172,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="D12" t="n">
-        <v>55.93903011582179</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28211,28 +28211,28 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668502</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R12" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
+        <v>3.025074842490312</v>
+      </c>
+      <c r="T12" t="n">
+        <v>26.40782189532172</v>
+      </c>
+      <c r="U12" t="n">
+        <v>126.5005488796962</v>
+      </c>
+      <c r="V12" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="T12" t="n">
-        <v>178.3296493245552</v>
-      </c>
-      <c r="U12" t="n">
-        <v>178.3296493245552</v>
-      </c>
-      <c r="V12" t="n">
-        <v>52.0865438648207</v>
       </c>
       <c r="W12" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="X12" t="n">
-        <v>28.75053738888906</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y12" t="n">
         <v>178.3296493245552</v>
@@ -28245,13 +28245,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.3296493245552</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.3296493245552</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -28260,10 +28260,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
+        <v>168.7006242014745</v>
+      </c>
+      <c r="H13" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="H13" t="n">
-        <v>165.8230575663656</v>
       </c>
       <c r="I13" t="n">
         <v>178.3296493245552</v>
@@ -28272,25 +28272,25 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
-        <v>67.01246855587065</v>
+        <v>131.0721947078057</v>
       </c>
       <c r="L13" t="n">
-        <v>32.12940745055727</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="M13" t="n">
-        <v>165.6101019548646</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="N13" t="n">
-        <v>16.49709222984361</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O13" t="n">
-        <v>178.3296493245552</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P13" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.3296493245552</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R13" t="n">
         <v>178.3296493245552</v>
@@ -28351,7 +28351,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="K14" t="n">
-        <v>178.3296493245552</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,16 +28360,16 @@
         <v>106.8246894514384</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4136397442805</v>
       </c>
       <c r="O14" t="n">
-        <v>126.8292537983444</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15.04365268017749</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.67545097688966</v>
+        <v>112.4502681928582</v>
       </c>
       <c r="R14" t="n">
         <v>178.3296493245552</v>
@@ -28448,16 +28448,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668502</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>178.3296493245552</v>
+        <v>3.025074842490312</v>
       </c>
       <c r="T15" t="n">
-        <v>83.56189725449806</v>
+        <v>26.40782189532172</v>
       </c>
       <c r="U15" t="n">
         <v>178.3296493245552</v>
@@ -28466,10 +28466,10 @@
         <v>178.3296493245552</v>
       </c>
       <c r="W15" t="n">
+        <v>126.5005488796965</v>
+      </c>
+      <c r="X15" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="X15" t="n">
-        <v>28.75053738888906</v>
       </c>
       <c r="Y15" t="n">
         <v>178.3296493245552</v>
@@ -28485,7 +28485,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -28500,28 +28500,28 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I16" t="n">
-        <v>178.3296493245552</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
-        <v>178.3296493245552</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K16" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="L16" t="n">
-        <v>168.6938603165287</v>
+        <v>75.02464252538815</v>
       </c>
       <c r="M16" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="N16" t="n">
-        <v>16.49709222984361</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O16" t="n">
-        <v>37.45757960830505</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="P16" t="n">
         <v>58.46036931460878</v>
@@ -28585,37 +28585,37 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J17" t="n">
-        <v>76.75309993802783</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K17" t="n">
-        <v>6.68444951827319</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L17" t="n">
-        <v>141.3165808583654</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>54.76247604601922</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017749</v>
+        <v>203.6060297307591</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2378280274712</v>
+        <v>278.2378280274713</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8604380517429</v>
+        <v>207.4220449903997</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4245917920612</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U17" t="n">
         <v>297.4245917920612</v>
@@ -28643,16 +28643,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>150.865786964139</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7444246896586</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.025074842490353</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9701989459033</v>
+        <v>26.40782189532172</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280576689302</v>
+        <v>48.6656806183486</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.08654386482067</v>
       </c>
       <c r="W18" t="n">
-        <v>78.14220652643004</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>192.782317564421</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28752,10 +28752,10 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M19" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N19" t="n">
-        <v>16.49709222984361</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O19" t="n">
         <v>37.45757960830505</v>
@@ -28819,40 +28819,40 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
-        <v>258.3341135155459</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J20" t="n">
-        <v>265.3154769886094</v>
+        <v>143.3662903497519</v>
       </c>
       <c r="K20" t="n">
-        <v>195.2468265688547</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N20" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017749</v>
+        <v>203.606029730759</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.67545097688966</v>
+        <v>89.67545097688968</v>
       </c>
       <c r="R20" t="n">
         <v>194.8604380517429</v>
       </c>
       <c r="S20" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
         <v>250.1505146112862</v>
@@ -28880,13 +28880,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.5874518930719</v>
@@ -28934,19 +28934,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U21" t="n">
-        <v>70.0980904365623</v>
+        <v>48.6656806183486</v>
       </c>
       <c r="V21" t="n">
-        <v>52.0865438648207</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>225.43918149118</v>
       </c>
       <c r="X21" t="n">
-        <v>28.75053738888906</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.82190908344404</v>
       </c>
     </row>
     <row r="22">
@@ -28989,10 +28989,10 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N22" t="n">
-        <v>16.49709222984361</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O22" t="n">
         <v>37.45757960830505</v>
@@ -29059,13 +29059,13 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J23" t="n">
-        <v>76.75309993802783</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K23" t="n">
-        <v>171.0300196321832</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L23" t="n">
-        <v>141.3165808583653</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,25 +29074,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9394642895415</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017749</v>
+        <v>15.0436526801775</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.67545097688966</v>
+        <v>89.67545097688968</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5093375700639</v>
+        <v>261.60464981758</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29123,7 +29123,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668502</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490312</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9701989459033</v>
+        <v>26.40782189532172</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.08654386482067</v>
       </c>
       <c r="W24" t="n">
-        <v>83.88403666007773</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.75053738888914</v>
+        <v>185.9358110837525</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.82190908344415</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29226,10 +29226,10 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M25" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N25" t="n">
-        <v>16.49709222984361</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O25" t="n">
         <v>37.45757960830505</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680326</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680331</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="27">
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>88.87322676818073</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>169.1557044276907</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="28">
@@ -29463,43 +29463,43 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M28" t="n">
-        <v>25.19323846374672</v>
+        <v>102.8817587875213</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49709222984361</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O28" t="n">
         <v>37.45757960830505</v>
       </c>
       <c r="P28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q28" t="n">
-        <v>204.8928850672797</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R28" t="n">
         <v>203.4231839810569</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="29">
@@ -29600,10 +29600,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>104.0842764926662</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H30" t="n">
         <v>125.7337882414754</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668502</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5874518930719</v>
@@ -29645,19 +29645,19 @@
         <v>213.4669766680328</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>213.4669766680328</v>
       </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
       <c r="X30" t="n">
-        <v>213.4669766680328</v>
+        <v>144.6920277015463</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29676,13 +29676,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>213.4669766680328</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>213.4669766680328</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>213.4669766680328</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H31" t="n">
         <v>165.8230575663656</v>
@@ -29691,7 +29691,7 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J31" t="n">
-        <v>151.7830038957431</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
         <v>67.01246855587065</v>
@@ -29700,10 +29700,10 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M31" t="n">
-        <v>25.19323846374672</v>
+        <v>171.6257542164175</v>
       </c>
       <c r="N31" t="n">
-        <v>16.49709222984361</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O31" t="n">
         <v>37.45757960830505</v>
@@ -29712,10 +29712,10 @@
         <v>58.46036931460878</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.204364743505</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R31" t="n">
-        <v>213.4669766680328</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S31" t="n">
         <v>213.4669766680328</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K32" t="n">
-        <v>213.4669766680331</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680325</v>
       </c>
       <c r="N32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="33">
@@ -29831,7 +29831,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668502</v>
+        <v>6.846506480668513</v>
       </c>
       <c r="R33" t="n">
         <v>134.7086383504341</v>
@@ -29879,22 +29879,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>9.983389351112123</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>169.1557044276907</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="34">
@@ -29913,22 +29913,22 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>213.4669766680327</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>187.7483497000296</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H34" t="n">
         <v>165.8230575663656</v>
       </c>
       <c r="I34" t="n">
-        <v>213.4669766680327</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J34" t="n">
-        <v>213.4669766680327</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K34" t="n">
         <v>67.01246855587065</v>
@@ -29937,43 +29937,43 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N34" t="n">
-        <v>16.49709222984361</v>
+        <v>63.13903016033852</v>
       </c>
       <c r="O34" t="n">
-        <v>37.45757960830505</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P34" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460879</v>
       </c>
       <c r="Q34" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4231839810569</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="35">
@@ -30007,34 +30007,34 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J35" t="n">
-        <v>76.75309993802783</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="K35" t="n">
-        <v>267.1428439929022</v>
+        <v>6.684449518273205</v>
       </c>
       <c r="L35" t="n">
-        <v>213.2125982824129</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>156.8480456064136</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3096571683279</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>89.02388334572824</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.04365268017749</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.67545097688966</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="R35" t="n">
-        <v>194.8604380517429</v>
+        <v>194.860438051743</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0596768448573</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T35" t="n">
         <v>222.4644104852103</v>
@@ -30065,19 +30065,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>150.7473702280419</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H36" t="n">
         <v>125.7337882414754</v>
@@ -30107,22 +30107,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668502</v>
+        <v>6.846506480668513</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.7566478648361</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.1723763804928</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -30174,22 +30174,22 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N37" t="n">
-        <v>16.49709222984361</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O37" t="n">
         <v>37.45757960830505</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460878</v>
+        <v>58.46036931460879</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R37" t="n">
-        <v>203.4231839810569</v>
+        <v>238.9786396965814</v>
       </c>
       <c r="S37" t="n">
         <v>235.4354176286827</v>
@@ -30241,37 +30241,37 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0596768448573</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0596768448573</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K38" t="n">
-        <v>6.68444951827319</v>
+        <v>83.9603792463719</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2125982824129</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>169.5886095622213</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3096571683277</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.8354817135888</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017749</v>
+        <v>15.04365268017751</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="R38" t="n">
-        <v>194.8604380517429</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5093375700639</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="T38" t="n">
         <v>222.4644104852103</v>
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>157.1566667689636</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30311,10 +30311,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H39" t="n">
         <v>125.7337882414754</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.7086383504341</v>
@@ -30353,16 +30353,16 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>55.38967362761289</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.246189102382573</v>
+        <v>6.246189102382743</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30411,16 +30411,16 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M40" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N40" t="n">
-        <v>16.49709222984361</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O40" t="n">
         <v>37.45757960830505</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460878</v>
+        <v>94.01582503013336</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
@@ -30429,7 +30429,7 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S40" t="n">
-        <v>270.9908733442073</v>
+        <v>235.4354176286827</v>
       </c>
       <c r="T40" t="n">
         <v>223.7609144406078</v>
@@ -30481,22 +30481,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J41" t="n">
-        <v>76.75309993802783</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K41" t="n">
-        <v>240.9968149183972</v>
+        <v>6.684449518273205</v>
       </c>
       <c r="L41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="N41" t="n">
+        <v>30.7262563696525</v>
+      </c>
+      <c r="O41" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="O41" t="n">
-        <v>23.92322853959273</v>
       </c>
       <c r="P41" t="n">
         <v>240.9968149183972</v>
@@ -30505,10 +30505,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="R41" t="n">
-        <v>194.8604380517429</v>
+        <v>194.860438051743</v>
       </c>
       <c r="S41" t="n">
-        <v>240.9968149183972</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T41" t="n">
         <v>240.9968149183972</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30548,7 +30548,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7444246896586</v>
@@ -30581,13 +30581,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5874518930719</v>
+        <v>90.6314588910553</v>
       </c>
       <c r="T42" t="n">
         <v>214.9701989459033</v>
@@ -30599,7 +30599,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>93.06279568447474</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30639,7 +30639,7 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J43" t="n">
-        <v>223.3672292753898</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K43" t="n">
         <v>67.01246855587065</v>
@@ -30648,16 +30648,16 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N43" t="n">
-        <v>16.49709222984361</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O43" t="n">
         <v>37.45757960830505</v>
       </c>
       <c r="P43" t="n">
-        <v>58.46036931460878</v>
+        <v>161.5986473125259</v>
       </c>
       <c r="Q43" t="n">
         <v>127.204364743505</v>
@@ -30721,7 +30721,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
-        <v>6.68444951827319</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
         <v>240.9968149183972</v>
@@ -30730,22 +30730,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>58.02870336397584</v>
+      </c>
+      <c r="P44" t="n">
+        <v>15.04365268017752</v>
+      </c>
+      <c r="Q44" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="Q44" t="n">
-        <v>126.0117607408674</v>
-      </c>
-      <c r="R44" t="n">
-        <v>194.8604380517429</v>
-      </c>
       <c r="S44" t="n">
-        <v>227.5093375700639</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="T44" t="n">
         <v>222.4644104852103</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>116.3615628985581</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30797,7 +30797,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705465</v>
+        <v>52.45818464705466</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668502</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7086383504341</v>
+        <v>134.7086383504342</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280576689302</v>
+        <v>111.6399229074432</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="G46" t="n">
         <v>168.7006242014745</v>
@@ -30876,25 +30876,25 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J46" t="n">
-        <v>223.3672292753898</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K46" t="n">
-        <v>67.01246855587065</v>
+        <v>67.01246855587067</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055727</v>
+        <v>32.12940745055728</v>
       </c>
       <c r="M46" t="n">
-        <v>25.19323846374672</v>
+        <v>25.19323846374674</v>
       </c>
       <c r="N46" t="n">
-        <v>16.49709222984361</v>
+        <v>16.49709222984363</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830505</v>
+        <v>37.45757960830507</v>
       </c>
       <c r="P46" t="n">
-        <v>58.46036931460878</v>
+        <v>58.4603693146088</v>
       </c>
       <c r="Q46" t="n">
         <v>127.204364743505</v>
@@ -30906,7 +30906,7 @@
         <v>235.4354176286827</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7609144406078</v>
+        <v>224.8292597385743</v>
       </c>
       <c r="U46" t="n">
         <v>240.9968149183972</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I11" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690872</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723881</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P11" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R11" t="n">
         <v>25.56967800380561</v>
@@ -31835,40 +31835,40 @@
         <v>2.103428681421369</v>
       </c>
       <c r="I12" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J12" t="n">
         <v>20.57672898569378</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L12" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M12" t="n">
         <v>55.18395773193117</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P12" t="n">
         <v>41.58904538225411</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R12" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S12" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U12" t="n">
         <v>0.01432853325218916</v>
@@ -31914,16 +31914,16 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222541</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J13" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K13" t="n">
         <v>21.21374582084765</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362619</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M13" t="n">
         <v>28.62195768301065</v>
@@ -31947,10 +31947,10 @@
         <v>3.182061873127147</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I14" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690872</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M14" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723881</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P14" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R14" t="n">
         <v>25.56967800380561</v>
@@ -32072,40 +32072,40 @@
         <v>2.103428681421369</v>
       </c>
       <c r="I15" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J15" t="n">
         <v>20.57672898569378</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L15" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M15" t="n">
         <v>55.18395773193117</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P15" t="n">
         <v>41.58904538225411</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R15" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S15" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U15" t="n">
         <v>0.01432853325218916</v>
@@ -32151,16 +32151,16 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222541</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J16" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K16" t="n">
         <v>21.21374582084765</v>
       </c>
       <c r="L16" t="n">
-        <v>27.14629101362619</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M16" t="n">
         <v>28.62195768301065</v>
@@ -32184,10 +32184,10 @@
         <v>3.182061873127147</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I17" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690872</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M17" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723881</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P17" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R17" t="n">
         <v>25.56967800380561</v>
@@ -32309,40 +32309,40 @@
         <v>2.103428681421369</v>
       </c>
       <c r="I18" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J18" t="n">
         <v>20.57672898569378</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L18" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M18" t="n">
         <v>55.18395773193117</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O18" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P18" t="n">
         <v>41.58904538225411</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R18" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S18" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U18" t="n">
         <v>0.01432853325218916</v>
@@ -32388,16 +32388,16 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222541</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J19" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K19" t="n">
         <v>21.21374582084765</v>
       </c>
       <c r="L19" t="n">
-        <v>27.14629101362619</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M19" t="n">
         <v>28.62195768301065</v>
@@ -32421,10 +32421,10 @@
         <v>3.182061873127147</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I20" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690872</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723881</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P20" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R20" t="n">
         <v>25.56967800380561</v>
@@ -32546,40 +32546,40 @@
         <v>2.103428681421369</v>
       </c>
       <c r="I21" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J21" t="n">
         <v>20.57672898569378</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M21" t="n">
         <v>55.18395773193117</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O21" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P21" t="n">
         <v>41.58904538225411</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R21" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S21" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U21" t="n">
         <v>0.01432853325218916</v>
@@ -32625,16 +32625,16 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222541</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J22" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K22" t="n">
         <v>21.21374582084765</v>
       </c>
       <c r="L22" t="n">
-        <v>27.14629101362619</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M22" t="n">
         <v>28.62195768301065</v>
@@ -32658,10 +32658,10 @@
         <v>3.182061873127147</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I23" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690872</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723881</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P23" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R23" t="n">
         <v>25.56967800380561</v>
@@ -32783,40 +32783,40 @@
         <v>2.103428681421369</v>
       </c>
       <c r="I24" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J24" t="n">
         <v>20.57672898569378</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M24" t="n">
         <v>55.18395773193117</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O24" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P24" t="n">
         <v>41.58904538225411</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R24" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U24" t="n">
         <v>0.01432853325218916</v>
@@ -32862,16 +32862,16 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222541</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J25" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K25" t="n">
         <v>21.21374582084765</v>
       </c>
       <c r="L25" t="n">
-        <v>27.14629101362619</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M25" t="n">
         <v>28.62195768301065</v>
@@ -32895,10 +32895,10 @@
         <v>3.182061873127147</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I26" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690872</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723881</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P26" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R26" t="n">
         <v>25.56967800380561</v>
@@ -33020,40 +33020,40 @@
         <v>2.103428681421369</v>
       </c>
       <c r="I27" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J27" t="n">
         <v>20.57672898569378</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M27" t="n">
         <v>55.18395773193117</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O27" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P27" t="n">
         <v>41.58904538225411</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R27" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S27" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U27" t="n">
         <v>0.01432853325218916</v>
@@ -33099,16 +33099,16 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222541</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J28" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K28" t="n">
         <v>21.21374582084765</v>
       </c>
       <c r="L28" t="n">
-        <v>27.14629101362619</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M28" t="n">
         <v>28.62195768301065</v>
@@ -33132,10 +33132,10 @@
         <v>3.182061873127147</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I29" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690872</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M29" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723881</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P29" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R29" t="n">
         <v>25.56967800380561</v>
@@ -33257,40 +33257,40 @@
         <v>2.103428681421369</v>
       </c>
       <c r="I30" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J30" t="n">
         <v>20.57672898569378</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M30" t="n">
         <v>55.18395773193117</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O30" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P30" t="n">
         <v>41.58904538225411</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R30" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S30" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U30" t="n">
         <v>0.01432853325218916</v>
@@ -33336,16 +33336,16 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222541</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J31" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K31" t="n">
         <v>21.21374582084765</v>
       </c>
       <c r="L31" t="n">
-        <v>27.14629101362619</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M31" t="n">
         <v>28.62195768301065</v>
@@ -33369,10 +33369,10 @@
         <v>3.182061873127147</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I32" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048832</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690869</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306043</v>
+        <v>71.4753224330604</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723881</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P32" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232045</v>
       </c>
       <c r="R32" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995072</v>
+        <v>9.27576920799507</v>
       </c>
       <c r="T32" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H33" t="n">
-        <v>2.103428681421369</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I33" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J33" t="n">
         <v>20.57672898569378</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193116</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O33" t="n">
-        <v>51.81866288876702</v>
+        <v>51.818662888767</v>
       </c>
       <c r="P33" t="n">
-        <v>41.58904538225411</v>
+        <v>41.5890453822541</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R33" t="n">
-        <v>13.52231444786599</v>
+        <v>13.52231444786598</v>
       </c>
       <c r="S33" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868068</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841219</v>
       </c>
       <c r="U33" t="n">
         <v>0.01432853325218916</v>
@@ -33573,43 +33573,43 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222539</v>
       </c>
       <c r="J34" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K34" t="n">
         <v>21.21374582084765</v>
       </c>
       <c r="L34" t="n">
-        <v>27.14629101362619</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301064</v>
       </c>
       <c r="N34" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O34" t="n">
-        <v>25.80839749785129</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119911</v>
       </c>
       <c r="S34" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I35" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048832</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690869</v>
       </c>
       <c r="M35" t="n">
-        <v>71.47532243306043</v>
+        <v>71.4753224330604</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723881</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P35" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232045</v>
       </c>
       <c r="R35" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S35" t="n">
-        <v>9.275769207995072</v>
+        <v>9.27576920799507</v>
       </c>
       <c r="T35" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H36" t="n">
-        <v>2.103428681421369</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I36" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J36" t="n">
         <v>20.57672898569378</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193116</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O36" t="n">
-        <v>51.81866288876702</v>
+        <v>51.818662888767</v>
       </c>
       <c r="P36" t="n">
-        <v>41.58904538225411</v>
+        <v>41.5890453822541</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R36" t="n">
-        <v>13.52231444786599</v>
+        <v>13.52231444786598</v>
       </c>
       <c r="S36" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868068</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841219</v>
       </c>
       <c r="U36" t="n">
         <v>0.01432853325218916</v>
@@ -33810,43 +33810,43 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222539</v>
       </c>
       <c r="J37" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K37" t="n">
         <v>21.21374582084765</v>
       </c>
       <c r="L37" t="n">
-        <v>27.14629101362619</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301064</v>
       </c>
       <c r="N37" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O37" t="n">
-        <v>25.80839749785129</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119911</v>
       </c>
       <c r="S37" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I38" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048832</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690869</v>
       </c>
       <c r="M38" t="n">
-        <v>71.47532243306043</v>
+        <v>71.4753224330604</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723881</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P38" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232045</v>
       </c>
       <c r="R38" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S38" t="n">
-        <v>9.275769207995072</v>
+        <v>9.27576920799507</v>
       </c>
       <c r="T38" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H39" t="n">
-        <v>2.103428681421369</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I39" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J39" t="n">
         <v>20.57672898569378</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193116</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O39" t="n">
-        <v>51.81866288876702</v>
+        <v>51.818662888767</v>
       </c>
       <c r="P39" t="n">
-        <v>41.58904538225411</v>
+        <v>41.5890453822541</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R39" t="n">
-        <v>13.52231444786599</v>
+        <v>13.52231444786598</v>
       </c>
       <c r="S39" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868068</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841219</v>
       </c>
       <c r="U39" t="n">
         <v>0.01432853325218916</v>
@@ -34047,43 +34047,43 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222539</v>
       </c>
       <c r="J40" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K40" t="n">
         <v>21.21374582084765</v>
       </c>
       <c r="L40" t="n">
-        <v>27.14629101362619</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301064</v>
       </c>
       <c r="N40" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O40" t="n">
-        <v>25.80839749785129</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119911</v>
       </c>
       <c r="S40" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I41" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048832</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690869</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306043</v>
+        <v>71.4753224330604</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723881</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P41" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232045</v>
       </c>
       <c r="R41" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995072</v>
+        <v>9.27576920799507</v>
       </c>
       <c r="T41" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H42" t="n">
-        <v>2.103428681421369</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I42" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J42" t="n">
         <v>20.57672898569378</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972322</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193116</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O42" t="n">
-        <v>51.81866288876702</v>
+        <v>51.818662888767</v>
       </c>
       <c r="P42" t="n">
-        <v>41.58904538225411</v>
+        <v>41.5890453822541</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R42" t="n">
-        <v>13.52231444786599</v>
+        <v>13.52231444786598</v>
       </c>
       <c r="S42" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868068</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841219</v>
       </c>
       <c r="U42" t="n">
         <v>0.01432853325218916</v>
@@ -34284,43 +34284,43 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222539</v>
       </c>
       <c r="J43" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K43" t="n">
         <v>21.21374582084765</v>
       </c>
       <c r="L43" t="n">
-        <v>27.14629101362619</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301064</v>
       </c>
       <c r="N43" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O43" t="n">
-        <v>25.80839749785129</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119911</v>
       </c>
       <c r="S43" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069145</v>
+        <v>0.4070551490069143</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767064</v>
+        <v>4.168753544767061</v>
       </c>
       <c r="I44" t="n">
         <v>15.69299363208908</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302564</v>
+        <v>34.54829695302562</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048834</v>
+        <v>51.77894141048831</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690872</v>
+        <v>64.23635542690867</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306043</v>
+        <v>71.47532243306038</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517633</v>
+        <v>72.63186787517628</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723881</v>
+        <v>68.58421323723877</v>
       </c>
       <c r="P44" t="n">
-        <v>58.5350392461306</v>
+        <v>58.53503924613057</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232047</v>
+        <v>43.95737672232044</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380561</v>
+        <v>25.5696780038056</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995072</v>
+        <v>9.275769207995067</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777769</v>
+        <v>1.781883914777768</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055315</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2177937054332752</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H45" t="n">
-        <v>2.103428681421369</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I45" t="n">
-        <v>7.49859906864566</v>
+        <v>7.498599068645657</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569378</v>
+        <v>20.57672898569377</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972322</v>
+        <v>35.1689072497232</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997496</v>
+        <v>47.28893590997493</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193117</v>
+        <v>55.18395773193114</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810433</v>
+        <v>56.64451288810429</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876702</v>
+        <v>51.81866288876699</v>
       </c>
       <c r="P45" t="n">
-        <v>41.58904538225411</v>
+        <v>41.58904538225408</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144756</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R45" t="n">
-        <v>13.52231444786599</v>
+        <v>13.52231444786598</v>
       </c>
       <c r="S45" t="n">
-        <v>4.04542255486807</v>
+        <v>4.045422554868067</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841221</v>
+        <v>0.8778614705841217</v>
       </c>
       <c r="U45" t="n">
         <v>0.01432853325218916</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1825909264705197</v>
+        <v>0.1825909264705196</v>
       </c>
       <c r="H46" t="n">
         <v>1.623399328074258</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222541</v>
+        <v>5.491007134222538</v>
       </c>
       <c r="J46" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084765</v>
+        <v>21.21374582084764</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362619</v>
+        <v>27.14629101362617</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301065</v>
+        <v>28.62195768301063</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252964</v>
+        <v>27.94139150252963</v>
       </c>
       <c r="O46" t="n">
-        <v>25.80839749785129</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785267</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.28950021563598</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119912</v>
+        <v>8.209952021119909</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127147</v>
+        <v>3.182061873127146</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831296</v>
+        <v>0.7801612312831292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210179</v>
+        <v>0.009959505080210174</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>171.6451998062821</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221615</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="M11" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N11" t="n">
-        <v>76.14873730630113</v>
+        <v>76.14873730630111</v>
       </c>
       <c r="O11" t="n">
-        <v>174.3745175982461</v>
+        <v>41.41713990178517</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.2859966443777</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766558</v>
+        <v>88.65419834766554</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515622</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
@@ -35498,7 +35498,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N12" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O12" t="n">
         <v>133.0740275578656</v>
@@ -35541,13 +35541,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7127286595871567</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.14699907384454</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35556,37 +35556,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.629025123080803</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.5065917581896</v>
       </c>
       <c r="I13" t="n">
-        <v>13.48121398879837</v>
+        <v>13.48121398879834</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>64.05972615193504</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>146.200241873998</v>
       </c>
       <c r="M13" t="n">
-        <v>140.4168634911179</v>
+        <v>153.1364108608085</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>140.8720697162502</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.8692800099465</v>
+        <v>119.8692800099464</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.12528458105024</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865274</v>
+        <v>101.5765493865273</v>
       </c>
       <c r="K14" t="n">
-        <v>171.6451998062821</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221615</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N14" t="n">
-        <v>76.14873730630113</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O14" t="n">
-        <v>161.4521665593844</v>
+        <v>34.62291276103997</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>163.2859966443777</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>22.77481721596853</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N15" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O15" t="n">
         <v>133.0740275578656</v>
@@ -35781,13 +35781,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.87246835258281</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.65350811233026</v>
+        <v>36.65350811233017</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35796,28 +35796,28 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.50659175818955</v>
       </c>
       <c r="I16" t="n">
-        <v>13.48121398879837</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.10069804708247</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.3171807686846</v>
+        <v>111.3171807686845</v>
       </c>
       <c r="L16" t="n">
-        <v>136.5644528659714</v>
+        <v>42.89523507483087</v>
       </c>
       <c r="M16" t="n">
-        <v>153.1364108608085</v>
+        <v>153.1364108608084</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>140.8720697162501</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35887,31 +35887,31 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>188.5623770505815</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M17" t="n">
-        <v>81.73768759914319</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N17" t="n">
-        <v>130.9112133523203</v>
+        <v>76.14873730630111</v>
       </c>
       <c r="O17" t="n">
-        <v>34.62291276103998</v>
+        <v>34.62291276103997</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>12.56160693865677</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.91525422199729</v>
       </c>
       <c r="T17" t="n">
-        <v>74.96018130685094</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>47.27407718077497</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515619</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -35972,7 +35972,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N18" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O18" t="n">
         <v>133.0740275578656</v>
@@ -36115,28 +36115,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>17.3372985971487</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.5623770505815</v>
+        <v>66.61319041172402</v>
       </c>
       <c r="K20" t="n">
-        <v>188.5623770505815</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.24579619221615</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914319</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N20" t="n">
-        <v>188.5623770505815</v>
+        <v>76.14873730630111</v>
       </c>
       <c r="O20" t="n">
-        <v>34.62291276103998</v>
+        <v>34.62291276103997</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36145,10 +36145,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.91525422199729</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N21" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O21" t="n">
         <v>133.0740275578656</v>
@@ -36358,19 +36358,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>164.34557011391</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914319</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N23" t="n">
-        <v>76.14873730630113</v>
+        <v>76.14873730630111</v>
       </c>
       <c r="O23" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,16 +36379,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>34.09531224751604</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U23" t="n">
-        <v>47.27407718077497</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36446,10 +36446,10 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0740275578652</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P24" t="n">
         <v>84.5041424154505</v>
@@ -36595,7 +36595,7 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497594</v>
       </c>
       <c r="L26" t="n">
         <v>260.7127728602489</v>
@@ -36610,13 +36610,13 @@
         <v>248.0898894290727</v>
       </c>
       <c r="P26" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q26" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.6065386162902</v>
+        <v>18.60653861628983</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N27" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O27" t="n">
         <v>133.0740275578656</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>77.68852032377454</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>155.006607353424</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.68852032377475</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>260.7127728602489</v>
       </c>
       <c r="M29" t="n">
-        <v>295.204664267176</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N29" t="n">
         <v>289.6157139743339</v>
@@ -36920,7 +36920,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N30" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O30" t="n">
         <v>133.0740275578656</v>
@@ -36972,13 +36972,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.79083545580778</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74.54009444958612</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.76635246655832</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.55405261827037</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>146.4325157526708</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37008,10 +37008,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.26261192452776</v>
       </c>
       <c r="R31" t="n">
-        <v>10.04379268697591</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7825271497599</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L32" t="n">
         <v>260.7127728602489</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671759</v>
+        <v>295.2046642671757</v>
       </c>
       <c r="N32" t="n">
         <v>289.6157139743339</v>
@@ -37084,13 +37084,13 @@
         <v>248.0898894290727</v>
       </c>
       <c r="P32" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q32" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.6065386162898</v>
+        <v>18.60653861628982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N33" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578655</v>
       </c>
       <c r="P33" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545049</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37209,22 +37209,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.79083545580775</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>19.0477254985551</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.61854133227587</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.23802539055997</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>46.6419379304949</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.0093970597277</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.04379268697591</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,34 +37303,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.3065769068295</v>
       </c>
       <c r="K35" t="n">
-        <v>260.458394474629</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>260.458394474629</v>
+        <v>47.24579619221612</v>
       </c>
       <c r="M35" t="n">
-        <v>81.73768759914319</v>
+        <v>238.5857332055568</v>
       </c>
       <c r="N35" t="n">
-        <v>260.458394474629</v>
+        <v>76.14873730630111</v>
       </c>
       <c r="O35" t="n">
-        <v>123.6467961067682</v>
+        <v>34.62291276103997</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>257.0160241646798</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3842258679676</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.55033927479334</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N36" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578655</v>
       </c>
       <c r="P36" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545049</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.55545571552469</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646006</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.3065769068295</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>77.2759297280987</v>
       </c>
       <c r="L38" t="n">
-        <v>260.458394474629</v>
+        <v>47.24579619221612</v>
       </c>
       <c r="M38" t="n">
-        <v>251.3262971613645</v>
+        <v>81.73768759914316</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630113</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276103998</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,10 +37564,10 @@
         <v>182.3842258679676</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.19923879311439</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.5503392747934</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N39" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578655</v>
       </c>
       <c r="P39" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545049</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.55545571552469</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37780,31 +37780,31 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>234.312365400124</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2426111106134</v>
+        <v>288.2426111106133</v>
       </c>
       <c r="M41" t="n">
-        <v>81.73768759914319</v>
+        <v>322.7345025175404</v>
       </c>
       <c r="N41" t="n">
-        <v>317.1455522246983</v>
+        <v>106.8749936759536</v>
       </c>
       <c r="O41" t="n">
-        <v>58.54614130063271</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P41" t="n">
         <v>225.9531622382197</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.3213639415076</v>
+        <v>151.3213639415075</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.4874773483333</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>18.53240443318696</v>
@@ -37868,13 +37868,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N42" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578655</v>
       </c>
       <c r="P42" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545049</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>103.1382779979171</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,31 +38017,31 @@
         <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.312365400124</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2426111106134</v>
+        <v>288.2426111106133</v>
       </c>
       <c r="M44" t="n">
         <v>322.7345025175404</v>
       </c>
       <c r="N44" t="n">
-        <v>317.1455522246983</v>
+        <v>76.14873730630109</v>
       </c>
       <c r="O44" t="n">
-        <v>34.62291276103998</v>
+        <v>92.65161612501578</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382197</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.33630976397775</v>
+        <v>151.3213639415075</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.13637686665428</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.4874773483333</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515622</v>
+        <v>38.3758252851562</v>
       </c>
       <c r="L45" t="n">
         <v>118.55713633517</v>
@@ -38105,13 +38105,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N45" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O45" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578655</v>
       </c>
       <c r="P45" t="n">
-        <v>84.5041424154505</v>
+        <v>84.50414241545047</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.0699326999506</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.1382779979171</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.06834529796649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
